--- a/doc/CS673_SPPP_RiskManagement.xlsx
+++ b/doc/CS673_SPPP_RiskManagement.xlsx
@@ -3,15 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Team_3" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="xi1+FBHMh6l+dN36m9TVXsRA+MV3WelYAz/sTq4x9MI="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>This sheet provides some common risks in student projects. You should check if it applies to your group project. 
 You should also feel free to add other risks. Exemplary analysis is also added.</t>
@@ -84,88 +90,301 @@
     <t>add new team members</t>
   </si>
   <si>
+    <t>A person joins the team</t>
+  </si>
+  <si>
+    <t>Team leader and all members</t>
+  </si>
+  <si>
+    <t>Quickly onboard new member</t>
+  </si>
+  <si>
+    <t>Does not apply as of now</t>
+  </si>
+  <si>
     <t>Lack of motivation or responsibility</t>
   </si>
   <si>
+    <t>Team members lack motivation to complete tasks</t>
+  </si>
+  <si>
+    <t>Have regular weekly check-ins and 1-on-1's if needed</t>
+  </si>
+  <si>
+    <t>Ongoing communication and check-ins</t>
+  </si>
+  <si>
     <t>Communication</t>
   </si>
   <si>
     <t>duplicate work</t>
   </si>
   <si>
+    <t>Team members are duplicating work</t>
+  </si>
+  <si>
+    <t>Use project management tools like GitHub KanBan or something else to avoid duplications along with regular meetings</t>
+  </si>
+  <si>
+    <t>No duplicated work detected</t>
+  </si>
+  <si>
     <t>worked on wrong components</t>
   </si>
   <si>
+    <t>Team member worked on wrong component</t>
+  </si>
+  <si>
+    <t>Team leader</t>
+  </si>
+  <si>
+    <t>Regular check-ins and meetings along with a project management tool to prevent that</t>
+  </si>
+  <si>
+    <t>No wrong work detected</t>
+  </si>
+  <si>
     <t>useless work</t>
   </si>
   <si>
+    <t>Work done that isn't useful to the project</t>
+  </si>
+  <si>
+    <t>Regularly review work in meetings to check for work relevance</t>
+  </si>
+  <si>
+    <t>Hasn't happened</t>
+  </si>
+  <si>
     <t>inconsistent work</t>
   </si>
   <si>
+    <t>Work quality is inconsistent</t>
+  </si>
+  <si>
+    <t>Tem leader and all members</t>
+  </si>
+  <si>
+    <t>Follow coding standards and guidelines to review work consistency</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Requirements </t>
   </si>
   <si>
     <t>unclear requirements</t>
   </si>
   <si>
+    <t>Requirements are not clearly defined</t>
+  </si>
+  <si>
+    <t>Requirement Leader</t>
+  </si>
+  <si>
+    <t>Regular meetings with stakeholders to clarify and refine requirements.</t>
+  </si>
+  <si>
+    <t>Ongoing requirement refinement</t>
+  </si>
+  <si>
     <t>scope creep</t>
   </si>
   <si>
+    <t>Uncontrolled changes in project scope</t>
+  </si>
+  <si>
+    <t>Implement change control process to manage scope changes.</t>
+  </si>
+  <si>
+    <t>Scope changes under control</t>
+  </si>
+  <si>
     <t>constant requirements changes</t>
   </si>
   <si>
+    <t>Frequent changes in requirements</t>
+  </si>
+  <si>
+    <t>Regular communication with stakeholders and iterative development to manage changes.</t>
+  </si>
+  <si>
+    <t>Managed through iterative updates</t>
+  </si>
+  <si>
     <t>Management</t>
   </si>
   <si>
     <t>improper task assignments</t>
   </si>
   <si>
+    <t>Tasks not assigned properly</t>
+  </si>
+  <si>
+    <t>Regularly review and adjust task assignments based on team skills and project needs.</t>
+  </si>
+  <si>
+    <t>Tasks reviewed regularly</t>
+  </si>
+  <si>
     <t>improper planning</t>
   </si>
   <si>
+    <t>Poor planning of project phases</t>
+  </si>
+  <si>
+    <t>Regular planning sessions and reviews to ensure proper project planning.</t>
+  </si>
+  <si>
+    <t>Planning sessions ongoing</t>
+  </si>
+  <si>
     <t>lack of management skills</t>
   </si>
   <si>
+    <t>Team lacks management skills</t>
+  </si>
+  <si>
+    <t>Provide management training and support for the team leader.</t>
+  </si>
+  <si>
+    <t>Ongoing management training</t>
+  </si>
+  <si>
     <t>Technology competence</t>
   </si>
   <si>
     <t>Not familiar with the framework used</t>
   </si>
   <si>
+    <t>Team not familiar with Django framework</t>
+  </si>
+  <si>
+    <t>Provide training and resources for team members to learn Django.</t>
+  </si>
+  <si>
+    <t>Training sessions scheduled</t>
+  </si>
+  <si>
     <t>Not familiar with the programming language used</t>
   </si>
   <si>
+    <t>Team not familiar with Python</t>
+  </si>
+  <si>
+    <t>Provide training and resources for team members to learn Python.</t>
+  </si>
+  <si>
     <t>Not familiar with unit testing</t>
   </si>
   <si>
+    <t>Team not familiar with unit testing</t>
+  </si>
+  <si>
+    <t>QA Leader</t>
+  </si>
+  <si>
+    <t>Provide training on unit testing practices and tools.</t>
+  </si>
+  <si>
     <t>Other technology incompetence</t>
   </si>
   <si>
+    <t>Team lacks other necessary technology skills</t>
+  </si>
+  <si>
+    <t>Identify skill gaps and provide training and resources.</t>
+  </si>
+  <si>
+    <t>Ongoing skills assessment</t>
+  </si>
+  <si>
     <t>Not familiar with Git</t>
   </si>
   <si>
+    <t>Team not familiar with Git for version control</t>
+  </si>
+  <si>
+    <t>Configuration Leader</t>
+  </si>
+  <si>
+    <t>Provide Git training and best practices documentation.</t>
+  </si>
+  <si>
     <t>Design and implementation</t>
   </si>
   <si>
     <t>Improper design</t>
   </si>
   <si>
+    <t>Design does not meet project requirements</t>
+  </si>
+  <si>
+    <t>Design and Implementation Leader</t>
+  </si>
+  <si>
+    <t>Regular design reviews and stakeholder feedback sessions.</t>
+  </si>
+  <si>
+    <t>Design reviews ongoing</t>
+  </si>
+  <si>
     <t>improper technology stack</t>
   </si>
   <si>
+    <t>Technology stack not suitable for project</t>
+  </si>
+  <si>
+    <t>Evaluate and select technology stack based on project needs and team expertise.</t>
+  </si>
+  <si>
+    <t>Technology stack evaluated</t>
+  </si>
+  <si>
     <t>Messy code</t>
   </si>
   <si>
+    <t>Code is disorganized and difficult to maintain</t>
+  </si>
+  <si>
+    <t>Establish and enforce coding standards and conduct regular code reviews.</t>
+  </si>
+  <si>
+    <t>Coding standards enforced</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testing </t>
   </si>
   <si>
     <t>Not enough testing</t>
   </si>
   <si>
+    <t>Insufficient test coverage</t>
+  </si>
+  <si>
+    <t>Ensure comprehensive test coverage by setting up testing frameworks and writing necessary tests.</t>
+  </si>
+  <si>
+    <t>Testing in progress</t>
+  </si>
+  <si>
     <t>Integration and deployment</t>
   </si>
   <si>
     <t>Not enough time for integration and deployment</t>
+  </si>
+  <si>
+    <t>Inadequate time allocated for integration and deployment</t>
+  </si>
+  <si>
+    <t>Team leader and Configuration Leader</t>
+  </si>
+  <si>
+    <t>Allocate sufficient time for integration and deployment phases in the project plan.</t>
+  </si>
+  <si>
+    <t>Time allocated in project plan</t>
   </si>
   <si>
     <t>The team member who is adding the new feature should be the one who determines what is correct for the new functionality that was added.</t>
@@ -182,18 +401,31 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Noto Serif"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -220,45 +452,55 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -266,32 +508,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -305,6 +538,204 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -313,7 +744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.63"/>
     <col customWidth="1" min="2" max="2" width="22.25"/>
@@ -343,7 +774,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -381,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -408,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="6">
-        <v>44713.0</v>
+        <v>45444.0</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>17</v>
@@ -435,21 +866,41 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4">
-      <c r="A4" s="8"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -466,20 +917,41 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5">
-      <c r="A5" s="8"/>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -496,23 +968,43 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="I6" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -529,21 +1021,41 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
     </row>
-    <row r="7">
-      <c r="A7" s="12"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -560,21 +1072,41 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -591,21 +1123,41 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -622,23 +1174,43 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>36.0</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -655,21 +1227,41 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11">
-      <c r="A11" s="8"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -686,21 +1278,41 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
     </row>
-    <row r="12">
-      <c r="A12" s="8"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -717,23 +1329,43 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -750,21 +1382,41 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14">
-      <c r="A14" s="8"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>36.0</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -781,21 +1433,41 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -812,23 +1484,43 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="I16" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -845,21 +1537,41 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
     </row>
-    <row r="17">
-      <c r="A17" s="8"/>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -876,21 +1588,41 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
     </row>
-    <row r="18">
-      <c r="A18" s="8"/>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -907,21 +1639,41 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
     </row>
-    <row r="19">
-      <c r="A19" s="8"/>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -938,21 +1690,41 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
     </row>
-    <row r="20">
-      <c r="A20" s="8"/>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -969,23 +1741,43 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>36.0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1002,21 +1794,41 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="13">
+        <v>36.0</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1033,21 +1845,41 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1064,23 +1896,43 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>36.0</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -1097,23 +1949,43 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>48.0</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="6">
+        <v>45444.0</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -1130,19 +2002,19 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -1159,10 +2031,10 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
     </row>
-    <row r="27">
-      <c r="A27" s="15"/>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -1187,8 +2059,8 @@
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
     </row>
-    <row r="28">
-      <c r="A28" s="15"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -1215,7 +2087,7 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="17"/>
@@ -1243,7 +2115,7 @@
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="17"/>
@@ -1253,8 +2125,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="18"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -1271,7 +2143,7 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="17"/>
@@ -1299,7 +2171,7 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="17"/>
@@ -1309,8 +2181,8 @@
       <c r="H32" s="7"/>
       <c r="I32" s="18"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -1327,7 +2199,7 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="17"/>
@@ -1337,9 +2209,9 @@
       <c r="H33" s="7"/>
       <c r="I33" s="18"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -1355,7 +2227,7 @@
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1384,17 +2256,17 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
     </row>
-    <row r="35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -1413,17 +2285,17 @@
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
     </row>
-    <row r="36">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -1442,17 +2314,17 @@
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -1471,17 +2343,17 @@
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -1500,17 +2372,15 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
     </row>
-    <row r="39">
-      <c r="A39" s="8"/>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="3"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="J39" s="3"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -1529,19 +2399,17 @@
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
     </row>
-    <row r="40">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="J40" s="3"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -1560,17 +2428,17 @@
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
     </row>
-    <row r="41">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="17"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -1589,7 +2457,7 @@
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1618,10 +2486,11 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
     </row>
-    <row r="44">
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
@@ -1629,9 +2498,9 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -1647,10 +2516,10 @@
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
@@ -1658,7 +2527,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="19"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -1676,10 +2545,10 @@
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="7"/>
@@ -1705,10 +2574,10 @@
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="7"/>
@@ -1734,6 +2603,3347 @@
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
     </row>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.63"/>
+    <col customWidth="1" min="2" max="2" width="22.25"/>
+    <col customWidth="1" min="3" max="3" width="25.75"/>
+    <col customWidth="1" min="4" max="4" width="8.88"/>
+    <col customWidth="1" min="5" max="5" width="10.13"/>
+    <col customWidth="1" min="6" max="7" width="10.88"/>
+    <col customWidth="1" min="8" max="8" width="10.75"/>
+    <col customWidth="1" min="9" max="9" width="11.75"/>
+    <col customWidth="1" min="10" max="10" width="18.5"/>
+    <col customWidth="1" min="11" max="11" width="16.38"/>
+    <col customWidth="1" min="12" max="12" width="8.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="37.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="G3" s="21">
+        <f>(6-D3)*(6-E3)*F3</f>
+        <v>32</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="22">
+        <v>44713.0</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/doc/CS673_SPPP_RiskManagement.xlsx
+++ b/doc/CS673_SPPP_RiskManagement.xlsx
@@ -17,10 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
-  <si>
-    <t>This sheet provides some common risks in student projects. You should check if it applies to your group project. 
-You should also feel free to add other risks. Exemplary analysis is also added.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="123">
+  <si>
+    <t>}</t>
   </si>
   <si>
     <t>Risk Category</t>
@@ -385,6 +384,10 @@
   </si>
   <si>
     <t>Time allocated in project plan</t>
+  </si>
+  <si>
+    <t>This sheet provides some common risks in student projects. You should check if it applies to your group project. 
+You should also feel free to add other risks. Exemplary analysis is also added.</t>
   </si>
   <si>
     <t>The team member who is adding the new feature should be the one who determines what is correct for the new functionality that was added.</t>
@@ -458,12 +461,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -516,6 +519,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -748,7 +754,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="19.63"/>
     <col customWidth="1" min="2" max="2" width="22.25"/>
-    <col customWidth="1" min="3" max="3" width="25.75"/>
+    <col customWidth="1" min="3" max="3" width="37.38"/>
     <col customWidth="1" min="4" max="4" width="8.88"/>
     <col customWidth="1" min="5" max="5" width="10.13"/>
     <col customWidth="1" min="6" max="7" width="10.88"/>
@@ -3585,8 +3591,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3644,35 +3650,35 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="22">
         <v>2.0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="22">
         <v>4.0</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="22">
         <v>4.0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="22">
         <f>(6-D3)*(6-E3)*F3</f>
         <v>32</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="23">
         <v>44713.0</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="7"/>
@@ -4765,7 +4771,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -4796,7 +4802,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>

--- a/doc/CS673_SPPP_RiskManagement.xlsx
+++ b/doc/CS673_SPPP_RiskManagement.xlsx
@@ -3,24 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Team_3" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Team_3" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="xi1+FBHMh6l+dN36m9TVXsRA+MV3WelYAz/sTq4x9MI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="K/L7GR3wZmaBNDk90VMsGuACjtZeUTVXkbgrkLTNvsg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="123">
-  <si>
-    <t>}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
   <si>
     <t>Risk Category</t>
   </si>
@@ -384,16 +380,6 @@
   </si>
   <si>
     <t>Time allocated in project plan</t>
-  </si>
-  <si>
-    <t>This sheet provides some common risks in student projects. You should check if it applies to your group project. 
-You should also feel free to add other risks. Exemplary analysis is also added.</t>
-  </si>
-  <si>
-    <t>The team member who is adding the new feature should be the one who determines what is correct for the new functionality that was added.</t>
-  </si>
-  <si>
-    <t>Work together as a team to make sure each developer has the same environment. This is useful so that there aren't accidental bugs added due to environment issues.</t>
   </si>
 </sst>
 </file>
@@ -435,7 +421,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,12 +434,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -461,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -520,18 +500,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -541,10 +509,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -766,9 +730,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -782,51 +744,51 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="5">
         <v>2.0</v>
@@ -842,19 +804,19 @@
         <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="6">
         <v>45444.0</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -875,10 +837,10 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="9">
         <v>2.0</v>
@@ -893,19 +855,19 @@
         <v>24.0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="6">
         <v>45444.0</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="L4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -926,10 +888,10 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="9">
         <v>3.0</v>
@@ -944,19 +906,19 @@
         <v>27.0</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="6">
         <v>45444.0</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -976,13 +938,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="9">
         <v>2.0</v>
@@ -997,19 +959,19 @@
         <v>24.0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="6">
         <v>45444.0</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="L6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1030,10 +992,10 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="9">
         <v>1.0</v>
@@ -1048,19 +1010,19 @@
         <v>20.0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="6">
         <v>45444.0</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1081,10 +1043,10 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="9">
         <v>2.0</v>
@@ -1099,19 +1061,19 @@
         <v>24.0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6">
         <v>45444.0</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1132,10 +1094,10 @@
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="9">
         <v>2.0</v>
@@ -1150,19 +1112,19 @@
         <v>24.0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="6">
         <v>45444.0</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="L9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1182,13 +1144,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="13">
         <v>2.0</v>
@@ -1203,19 +1165,19 @@
         <v>36.0</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="6">
         <v>45444.0</v>
       </c>
       <c r="J10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="L10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1236,10 +1198,10 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="D11" s="13">
         <v>3.0</v>
@@ -1254,19 +1216,19 @@
         <v>27.0</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6">
         <v>45444.0</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="L11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1287,10 +1249,10 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="13">
         <v>3.0</v>
@@ -1305,19 +1267,19 @@
         <v>27.0</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="6">
         <v>45444.0</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1337,13 +1299,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="13">
         <v>2.0</v>
@@ -1358,19 +1320,19 @@
         <v>24.0</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="6">
         <v>45444.0</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="L13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1391,10 +1353,10 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="13">
         <v>2.0</v>
@@ -1409,19 +1371,19 @@
         <v>36.0</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="6">
         <v>45444.0</v>
       </c>
       <c r="J14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="L14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1442,10 +1404,10 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="13">
         <v>2.0</v>
@@ -1460,19 +1422,19 @@
         <v>27.0</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="6">
         <v>45444.0</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="L15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1492,13 +1454,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="13">
         <v>3.0</v>
@@ -1513,19 +1475,19 @@
         <v>27.0</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="6">
         <v>45444.0</v>
       </c>
       <c r="J16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="L16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1546,10 +1508,10 @@
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="D17" s="13">
         <v>3.0</v>
@@ -1564,19 +1526,19 @@
         <v>27.0</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="6">
         <v>45444.0</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1597,10 +1559,10 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="D18" s="13">
         <v>3.0</v>
@@ -1615,19 +1577,19 @@
         <v>27.0</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="6">
         <v>45444.0</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1648,10 +1610,10 @@
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="D19" s="13">
         <v>3.0</v>
@@ -1666,19 +1628,19 @@
         <v>27.0</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="6">
         <v>45444.0</v>
       </c>
       <c r="J19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="L19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1699,10 +1661,10 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="D20" s="13">
         <v>3.0</v>
@@ -1717,19 +1679,19 @@
         <v>27.0</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" s="6">
         <v>45444.0</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1749,13 +1711,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="D21" s="13">
         <v>2.0</v>
@@ -1770,19 +1732,19 @@
         <v>36.0</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="6">
         <v>45444.0</v>
       </c>
       <c r="J21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="L21" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1803,10 +1765,10 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="D22" s="13">
         <v>2.0</v>
@@ -1821,19 +1783,19 @@
         <v>36.0</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="6">
         <v>45444.0</v>
       </c>
       <c r="J22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="L22" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1854,10 +1816,10 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="13">
         <v>3.0</v>
@@ -1872,19 +1834,19 @@
         <v>27.0</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="6">
         <v>45444.0</v>
       </c>
       <c r="J23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="L23" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1904,13 +1866,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="D24" s="13">
         <v>3.0</v>
@@ -1925,19 +1887,19 @@
         <v>36.0</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="6">
         <v>45444.0</v>
       </c>
       <c r="J24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="L24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1957,13 +1919,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="D25" s="13">
         <v>3.0</v>
@@ -1978,19 +1940,19 @@
         <v>48.0</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="6">
         <v>45444.0</v>
       </c>
       <c r="J25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="L25" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -2416,2394 +2378,6 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="19.63"/>
-    <col customWidth="1" min="2" max="2" width="22.25"/>
-    <col customWidth="1" min="3" max="3" width="25.75"/>
-    <col customWidth="1" min="4" max="4" width="8.88"/>
-    <col customWidth="1" min="5" max="5" width="10.13"/>
-    <col customWidth="1" min="6" max="7" width="10.88"/>
-    <col customWidth="1" min="8" max="8" width="10.75"/>
-    <col customWidth="1" min="9" max="9" width="11.75"/>
-    <col customWidth="1" min="10" max="10" width="18.5"/>
-    <col customWidth="1" min="11" max="11" width="16.38"/>
-    <col customWidth="1" min="12" max="12" width="8.25"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="F3" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="G3" s="22">
-        <f>(6-D3)*(6-E3)*F3</f>
-        <v>32</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="23">
-        <v>44713.0</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>

--- a/doc/CS673_SPPP_RiskManagement.xlsx
+++ b/doc/CS673_SPPP_RiskManagement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>Risk Category</t>
   </si>
@@ -76,10 +76,10 @@
     <t>Redefine the project scope if necessary, and assign the tasks to other team members.</t>
   </si>
   <si>
-    <t>No one dropped the class so far</t>
-  </si>
-  <si>
-    <t>Open</t>
+    <t>Someone dropped</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
   <si>
     <t>add new team members</t>
@@ -94,7 +94,7 @@
     <t>Quickly onboard new member</t>
   </si>
   <si>
-    <t>Does not apply as of now</t>
+    <t>No one else joined</t>
   </si>
   <si>
     <t>Lack of motivation or responsibility</t>
@@ -106,7 +106,7 @@
     <t>Have regular weekly check-ins and 1-on-1's if needed</t>
   </si>
   <si>
-    <t>Ongoing communication and check-ins</t>
+    <t>Everyone completed the project with a good attitude</t>
   </si>
   <si>
     <t>Communication</t>
@@ -121,7 +121,7 @@
     <t>Use project management tools like GitHub KanBan or something else to avoid duplications along with regular meetings</t>
   </si>
   <si>
-    <t>No duplicated work detected</t>
+    <t>Duplicated work was removed</t>
   </si>
   <si>
     <t>worked on wrong components</t>
@@ -136,7 +136,7 @@
     <t>Regular check-ins and meetings along with a project management tool to prevent that</t>
   </si>
   <si>
-    <t>No wrong work detected</t>
+    <t>This was corrected</t>
   </si>
   <si>
     <t>useless work</t>
@@ -148,9 +148,6 @@
     <t>Regularly review work in meetings to check for work relevance</t>
   </si>
   <si>
-    <t>Hasn't happened</t>
-  </si>
-  <si>
     <t>inconsistent work</t>
   </si>
   <si>
@@ -163,7 +160,7 @@
     <t>Follow coding standards and guidelines to review work consistency</t>
   </si>
   <si>
-    <t>Ongoing</t>
+    <t>Assignments have been completed</t>
   </si>
   <si>
     <t xml:space="preserve">Requirements </t>
@@ -181,7 +178,7 @@
     <t>Regular meetings with stakeholders to clarify and refine requirements.</t>
   </si>
   <si>
-    <t>Ongoing requirement refinement</t>
+    <t>Requirements completed</t>
   </si>
   <si>
     <t>scope creep</t>
@@ -193,7 +190,7 @@
     <t>Implement change control process to manage scope changes.</t>
   </si>
   <si>
-    <t>Scope changes under control</t>
+    <t>The project is over.</t>
   </si>
   <si>
     <t>constant requirements changes</t>
@@ -205,9 +202,6 @@
     <t>Regular communication with stakeholders and iterative development to manage changes.</t>
   </si>
   <si>
-    <t>Managed through iterative updates</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>Regularly review and adjust task assignments based on team skills and project needs.</t>
   </si>
   <si>
-    <t>Tasks reviewed regularly</t>
-  </si>
-  <si>
     <t>improper planning</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>Regular planning sessions and reviews to ensure proper project planning.</t>
   </si>
   <si>
-    <t>Planning sessions ongoing</t>
-  </si>
-  <si>
     <t>lack of management skills</t>
   </si>
   <si>
@@ -244,7 +232,7 @@
     <t>Provide management training and support for the team leader.</t>
   </si>
   <si>
-    <t>Ongoing management training</t>
+    <t xml:space="preserve">The team has been managed and completed the project. </t>
   </si>
   <si>
     <t>Technology competence</t>
@@ -259,7 +247,7 @@
     <t>Provide training and resources for team members to learn Django.</t>
   </si>
   <si>
-    <t>Training sessions scheduled</t>
+    <t>Everyone learned Django and React.</t>
   </si>
   <si>
     <t>Not familiar with the programming language used</t>
@@ -283,6 +271,9 @@
     <t>Provide training on unit testing practices and tools.</t>
   </si>
   <si>
+    <t>Everyone learned Django and Selenium for testing.</t>
+  </si>
+  <si>
     <t>Other technology incompetence</t>
   </si>
   <si>
@@ -292,9 +283,6 @@
     <t>Identify skill gaps and provide training and resources.</t>
   </si>
   <si>
-    <t>Ongoing skills assessment</t>
-  </si>
-  <si>
     <t>Not familiar with Git</t>
   </si>
   <si>
@@ -307,6 +295,9 @@
     <t>Provide Git training and best practices documentation.</t>
   </si>
   <si>
+    <t>People learned Git and GitHub.</t>
+  </si>
+  <si>
     <t>Design and implementation</t>
   </si>
   <si>
@@ -322,7 +313,7 @@
     <t>Regular design reviews and stakeholder feedback sessions.</t>
   </si>
   <si>
-    <t>Design reviews ongoing</t>
+    <t>Design fixed.</t>
   </si>
   <si>
     <t>improper technology stack</t>
@@ -334,7 +325,7 @@
     <t>Evaluate and select technology stack based on project needs and team expertise.</t>
   </si>
   <si>
-    <t>Technology stack evaluated</t>
+    <t>Correct stack was used.</t>
   </si>
   <si>
     <t>Messy code</t>
@@ -346,7 +337,7 @@
     <t>Establish and enforce coding standards and conduct regular code reviews.</t>
   </si>
   <si>
-    <t>Coding standards enforced</t>
+    <t>Code was refactored.</t>
   </si>
   <si>
     <t xml:space="preserve">Testing </t>
@@ -361,7 +352,7 @@
     <t>Ensure comprehensive test coverage by setting up testing frameworks and writing necessary tests.</t>
   </si>
   <si>
-    <t>Testing in progress</t>
+    <t>Tests were administered.</t>
   </si>
   <si>
     <t>Integration and deployment</t>
@@ -379,7 +370,7 @@
     <t>Allocate sufficient time for integration and deployment phases in the project plan.</t>
   </si>
   <si>
-    <t>Time allocated in project plan</t>
+    <t xml:space="preserve">The project is finished. </t>
   </si>
 </sst>
 </file>
@@ -441,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -462,6 +453,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -812,129 +806,129 @@
       <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>2.0</v>
       </c>
-      <c r="E4" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="10">
         <v>2.0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>24.0</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="D5" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="10">
         <v>27.0</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -943,1633 +937,1633 @@
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>2.0</v>
       </c>
-      <c r="E6" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="10">
         <v>2.0</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>24.0</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>1.0</v>
       </c>
-      <c r="E7" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="10">
         <v>2.0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>20.0</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>2.0</v>
       </c>
-      <c r="E8" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="10">
         <v>2.0</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>24.0</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>24.0</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>24.0</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="I9" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>36.0</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="I10" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="14">
         <v>4.0</v>
       </c>
-      <c r="F11" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="14">
         <v>27.0</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="14">
         <v>4.0</v>
       </c>
-      <c r="F12" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G12" s="14">
         <v>27.0</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>50</v>
+      <c r="H12" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="I12" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="12" t="s">
+      <c r="J12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>2.0</v>
       </c>
-      <c r="E13" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="14">
         <v>2.0</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <v>24.0</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="J13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="13">
+        <v>63</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="14">
         <v>2.0</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="14">
         <v>4.0</v>
       </c>
-      <c r="F14" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G14" s="14">
         <v>36.0</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="J14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="B15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="14">
         <v>2.0</v>
       </c>
-      <c r="E15" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="E15" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G15" s="14">
         <v>27.0</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="12" t="s">
+      <c r="J15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E16" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F16" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G16" s="13">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G16" s="14">
         <v>27.0</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="J16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G17" s="13">
+        <v>75</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G17" s="14">
         <v>27.0</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="12" t="s">
+      <c r="J17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G18" s="13">
+        <v>78</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="14">
         <v>27.0</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>84</v>
+      <c r="H18" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="I18" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="12" t="s">
+      <c r="J18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G19" s="13">
+        <v>83</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G19" s="14">
         <v>27.0</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="J19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E20" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F20" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G20" s="13">
+        <v>86</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G20" s="14">
         <v>27.0</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>92</v>
+      <c r="H20" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="I20" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="J20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>36.0</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G21" s="13">
-        <v>36.0</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="I21" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L21" s="12" t="s">
+      <c r="J21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="13">
+        <v>97</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="14">
         <v>2.0</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="14">
         <v>4.0</v>
       </c>
-      <c r="F22" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="F22" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="14">
         <v>36.0</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>97</v>
+      <c r="H22" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="I22" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="12" t="s">
+      <c r="J22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G23" s="13">
+        <v>101</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G23" s="14">
         <v>27.0</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>97</v>
+      <c r="H23" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="I23" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="12" t="s">
+      <c r="J23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E24" s="13">
+        <v>106</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="14">
         <v>4.0</v>
       </c>
-      <c r="F24" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="14">
         <v>36.0</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>84</v>
+      <c r="H24" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="I24" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="12" t="s">
+      <c r="J24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>48.0</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E25" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="G25" s="13">
-        <v>48.0</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="I25" s="6">
         <v>45444.0</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="12" t="s">
+      <c r="J25" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
     </row>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
